--- a/data/trans_bre/P7A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,37</t>
+          <t>21,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>24,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>32,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>51,36%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>75,48%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 20,85</t>
+          <t>-8,88; 37,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 28,54</t>
+          <t>-3,93; 45,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 30,52</t>
+          <t>0,05; 47,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 36,46</t>
+          <t>1,59; 52,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 41,01</t>
+          <t>6,87; 65,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 73,54</t>
+          <t>-14,71; 135,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 69,73</t>
+          <t>-7,42; 192,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 85,77</t>
+          <t>-0,46; 197,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 236,25</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 376,7</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>-13,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>-10,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>-6,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,8</t>
+          <t>-14,55; 6,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 7,45</t>
+          <t>-13,8; 6,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 8,41</t>
+          <t>-11,23; 8,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 10,28</t>
+          <t>-7,72; 10,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 29,07</t>
+          <t>-13,74; 8,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 28,94</t>
+          <t>-37,92; 23,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 35,3</t>
+          <t>-36,12; 25,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 45,97</t>
+          <t>-32,95; 36,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-24,76; 52,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-30,74; 27,89</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,11</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,75%</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,41%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-30,71%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-27,24%</t>
+          <t>-23,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-14,27%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-24,58%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 0,29</t>
+          <t>-14,12; 5,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -0,36</t>
+          <t>-13,97; 5,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,99; -1,1</t>
+          <t>-15,44; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 0,41</t>
+          <t>-12,67; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 2,08</t>
+          <t>-19,58; 2,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,55; -2,3</t>
+          <t>-45,92; 31,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,71; -4,1</t>
+          <t>-46,21; 32,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 4,1</t>
+          <t>-51,71; 21,03</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-48,39; 38,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-50,49; 11,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 10,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 11,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 14,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 22,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 36,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-6,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 5,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 5,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 6,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 9,66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 11,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-26,87; 19,1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-23,87; 21,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; 25,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; 42,72</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 36,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P7A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,87</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>19,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>21,15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>24,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>32,93</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>31,15%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>46,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>51,36%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>61,22%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>75,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.87202034469607</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.34323937381047</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>21.24846694018941</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>25.4418528536527</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>33.79472496033472</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3115335353684177</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3473332688049714</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5251779926304702</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6636271759982698</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7995347570976438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 37,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 45,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 47,09</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 52,01</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 65,02</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-14,71; 135,61</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 192,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 197,28</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 236,25</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,51; 376,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.877263785888911</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.664029198045558</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.6479922521157083</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.860726243703279</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>8.234331559463328</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1471053778566332</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1335860336390674</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.01076652070574399</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.05655675685862865</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.09728343207603747</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>37.99238198924347</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>41.17937032236883</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>46.28734337201206</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>51.71210546218094</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>65.30501211846683</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.356116578316118</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.624291777588606</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.851741961905807</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.25351858903478</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.907145648633099</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-13,87%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-10,72%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-6,44%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-6,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; 6,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,8; 6,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,23; 8,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 10,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-13,74; 8,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-37,92; 23,75</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-36,12; 25,36</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-32,95; 36,24</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-24,76; 52,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-30,74; 27,89</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.494934530863532</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.333752511460521</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.970475244457004</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.9737963836373431</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-3.226978874103731</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1386712720957733</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1390911694064591</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.06973331149802292</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.03683065133215192</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.08625889541688862</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-8,02</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-15,76%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-16,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-23,65%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-14,27%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-24,58%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.55046561021775</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.36729856463055</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.37294370745357</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.38986648650927</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-14.1194855777914</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3791500261716294</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3816261671937207</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3396358978429675</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2685883082185823</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3224670779766832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; 5,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,97; 5,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 3,87</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,67; 6,24</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,58; 2,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-45,92; 31,61</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-46,21; 32,5</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-51,71; 21,03</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-48,39; 38,82</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-50,49; 11,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.018097220856028</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.377271671768464</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.58324671528241</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.3607595009558</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.015239244497433</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2375448401730558</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2260693860977252</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3465564722930071</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5111386389547605</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2633774216931775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.873530807127443</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.26206071630819</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.146595745382706</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.769937019049685</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-8.152348036003726</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1575619874782551</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1032656705163491</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2153199147536004</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1724644225585937</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.260535147824598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.11935353139859</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.74152206369752</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.66133828519892</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.4646549993088</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-19.82099591642527</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4592368479099056</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.431477868417294</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5143124261296758</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4973525000436814</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5264013406760886</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.692983059362064</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.252124412237547</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.242087467431078</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.408643014791441</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.945168148756766</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3161317372842338</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4513730775751243</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2406012225767536</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3359558240851308</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.09653734475201128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-6,55%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,97%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>10,56%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 5,17</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 5,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 6,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 9,66</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 11,57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-26,87; 19,1</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; 21,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-22,85; 25,88</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-13,65; 42,72</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; 36,41</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.038095544044594</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.067464976086641</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.002044226097824842</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.903700666868253</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.360283970029603</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.06551747496219046</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.03630429754425902</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-7.23385363931587e-05</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1095541160567945</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.0652191743311559</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.585093125681469</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.649964901549845</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.688955033014767</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.942384242034973</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.795569536914668</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2687245893133831</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2470958057299873</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.207239149970951</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1324916957676793</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1659709511490292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.171102272366161</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.754796901797072</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.272268928555812</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.17557330621347</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>11.58863629042189</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1909739367126218</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2300602105658735</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3081014003165862</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4483294759345226</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3743240810511081</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
